--- a/Point Data Import/web/dox/example.xlsx
+++ b/Point Data Import/web/dox/example.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phillip\git\Phillip Development Repo\ma-modules-public\Point Data Import\web\dox\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="5475"/>
   </bookViews>
@@ -10,15 +15,11 @@
     <sheet name="Point Values" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>Point Value ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Data Point XID</t>
   </si>
@@ -62,7 +63,7 @@
     <t>10.0 °F</t>
   </si>
   <si>
-    <t>Delete</t>
+    <t>Modify (add/delete)</t>
   </si>
 </sst>
 </file>
@@ -390,22 +391,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="25" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,15 +429,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -444,25 +442,22 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>41582.337560567132</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>41582.337560567132</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -470,25 +465,22 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>41582.337606111112</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <v>5</v>
       </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -496,20 +488,17 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1">
+        <v>41582.337650787034</v>
+      </c>
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4" s="1">
-        <v>41582.337650787034</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
